--- a/data/case1/2/Plm1_14.xlsx
+++ b/data/case1/2/Plm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11307878850708164</v>
+        <v>-0.061818241674302499</v>
       </c>
       <c r="B1" s="0">
-        <v>0.112543598301869</v>
+        <v>0.061514803966787213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.011980792642461324</v>
+        <v>0.010971215931222744</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.012709129914874495</v>
+        <v>-0.011879652383511186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.11564205011804773</v>
+        <v>0.11713822339050139</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.11619291907629403</v>
+        <v>-0.11763451827482641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16780032423237756</v>
+        <v>-0.16635642620302349</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16691448601510572</v>
+        <v>0.16554175244700176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16091448644751161</v>
+        <v>-0.15954175294310158</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15913827003187908</v>
+        <v>0.15791223344256267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.078286573244028101</v>
+        <v>-0.025635966285036726</v>
       </c>
       <c r="B6" s="0">
-        <v>0.078206131285511571</v>
+        <v>0.025620464165854173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.046114761965219131</v>
+        <v>-0.0056204647681976638</v>
       </c>
       <c r="B7" s="0">
-        <v>0.046014614599487302</v>
+        <v>0.0055632778743834876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.026014615120732998</v>
+        <v>-0.024866000095296492</v>
       </c>
       <c r="B8" s="0">
-        <v>0.025968777946343558</v>
+        <v>0.024825192341929814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.019968778400271781</v>
+        <v>-0.018825192858107798</v>
       </c>
       <c r="B9" s="0">
-        <v>0.019940182464697642</v>
+        <v>0.018801293847833023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013940182920649136</v>
+        <v>-0.012801294366255433</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013940469801937638</v>
+        <v>0.012802041133589626</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051469565838100806</v>
+        <v>-0.0083020416424410826</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051391682487444967</v>
+        <v>0.0083016884260125323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045391682945063572</v>
+        <v>-0.0023016889447409206</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045149899348387645</v>
+        <v>0.0022908533452365987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039149899813037514</v>
+        <v>0.0037091461356135724</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084100078015105</v>
+        <v>-0.0037161085339523225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084100574745307</v>
+        <v>0.01571610797658618</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052306805689597</v>
+        <v>-0.015743299772266184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052307273921933</v>
+        <v>0.021743299254238124</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027287307809672</v>
+        <v>-0.021790924996801131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0150272877774138</v>
+        <v>-0.015025959434307179</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004398252906004</v>
+        <v>0.015004052732636719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043987243921819</v>
+        <v>-0.0090040532510498039</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995131462285</v>
+        <v>0.0089999994618628065</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.114524391394216</v>
+        <v>-0.036109636366720821</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1142292278535848</v>
+        <v>0.036096426209319077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.074659578643052615</v>
+        <v>-0.027096426721783473</v>
       </c>
       <c r="B19" s="0">
-        <v>0.073450411806291971</v>
+        <v>0.027013512540419171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.064450412264475787</v>
+        <v>-0.018013513057356434</v>
       </c>
       <c r="B20" s="0">
-        <v>0.064172119471870737</v>
+        <v>0.018004227096364289</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.055172119932351382</v>
+        <v>-0.0090042276139579158</v>
       </c>
       <c r="B21" s="0">
-        <v>0.054767753506216099</v>
+        <v>0.0089999994819125462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0939329206480366</v>
+        <v>-0.096258571519351577</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093624679274149969</v>
+        <v>0.095826088137858534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084624679722487883</v>
+        <v>-0.086826088654936129</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124865848713704</v>
+        <v>0.086098977162840207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124866469038125</v>
+        <v>-0.044098977900858927</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999376595376</v>
+        <v>0.043831854645389079</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.074851697234585401</v>
+        <v>-0.094855849432857298</v>
       </c>
       <c r="B25" s="0">
-        <v>0.074724599342115283</v>
+        <v>0.094618078400223737</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.068724599789920404</v>
+        <v>-0.088618078914478815</v>
       </c>
       <c r="B26" s="0">
-        <v>0.068566185635244636</v>
+        <v>0.088311002173870889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0625661860847746</v>
+        <v>-0.082311002690813595</v>
       </c>
       <c r="B27" s="0">
-        <v>0.062042566767779306</v>
+        <v>0.081258190458842083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.05604256722364287</v>
+        <v>-0.075258190987105955</v>
       </c>
       <c r="B28" s="0">
-        <v>0.055695573604376492</v>
+        <v>0.074528775897143795</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062523584344681638</v>
+        <v>-0.062528776471825864</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06216597387006928</v>
+        <v>0.062167403818717659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042165974403298279</v>
+        <v>-0.042167404448403722</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019436273399435</v>
+        <v>0.042019214573354891</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019436785804984</v>
+        <v>-0.027019215176407485</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000745858769548</v>
+        <v>0.027000646879427492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007464018063672</v>
+        <v>-0.0060006475218150612</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995318076316</v>
+        <v>0.0059999994534685186</v>
       </c>
     </row>
   </sheetData>
